--- a/biology/Histoire de la zoologie et de la botanique/William_Sherard/William_Sherard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Sherard/William_Sherard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Sherard est un botaniste britannique, né le 27 février 1659 à Bushby et mort le 11 août 1728.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de George et de Mary Sherard. Il est le frère de James Sherard, botaniste également. Il fait ses études à la Taylor’s School puis, de 1677 à 1683, au St. John’s College d’Oxford. Il obtient son Bachelor of Civil Law en 1683 et son Doctorate of Civil Law en 1694.
 Il étudie la botanique à Paris auprès de Joseph Pitton de Tournefort (1686–1688) et à Leyde auprès de Paul Hermann (1688–1689). Il herborise à Genève, Rome et Naples. En 1690 il est précepteur dans la famille de Sir Arthur Rawdon (« le père de l'horticulture irlandaise ») à Moira dans le comté de Down.
 De 1703 à 1716, il est consul britannique à Smyrne. Il fait alors de nombreuses excursions pour récolter des plantes et des objets archéologiques. Devenu riche, il aide à son retour d'autres botanistes : Johann Jacob Dillenius, Pietro Antonio Micheli, Paolo Boccone et Mark Catesby. Il devient membre de la Royal Society en 1720.
 Il lègue à l'université d'Oxford la somme de 3 000 livres pour la création d'une chaire de botanique consacrée au système linnéen (1734) ; cette chaire porte depuis le nom de Chaire sherardienne. L'université a aussi la responsabilité de la conservation de sa bibliothèque et de son herbier. C'est Johann Jacob Dillenius puis, à sa mort, Humphrey Sibthorp, qui en deviendront titulaires.
-Il est l’auteur de Schola Botanica (1689) et de nombreux articles scientifiques. Sherard a collaboré à l'édition qu’Herman Boerhaave a faite du Botanicon parisiense de Sébastien Vaillant[1]. Il collabore également avec John Ray pour le dernier volume de son Historia Plantarum.
-Sébastien Vaillant[2], Johann Jacob Dillenius puis Carl von Linné ont introduit le nom de Sherardia (famille des Rubiacées) dans la taxonomie.
+Il est l’auteur de Schola Botanica (1689) et de nombreux articles scientifiques. Sherard a collaboré à l'édition qu’Herman Boerhaave a faite du Botanicon parisiense de Sébastien Vaillant. Il collabore également avec John Ray pour le dernier volume de son Historia Plantarum.
+Sébastien Vaillant, Johann Jacob Dillenius puis Carl von Linné ont introduit le nom de Sherardia (famille des Rubiacées) dans la taxonomie.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la) Schola Botanica Sive Catalogus Plantarum, quas ab aliquot annis in Horto Regio Parisiensi Studiosis indigitavit Vir Clarissimus Joseph Pitton Tournefort, D. M. Ut Et Pauli Hermanni P.P. Paradisi Batavi Prodromus … sur Google Livres, Amsterdam, Heinrich Wetstein, 1689</t>
         </is>
